--- a/outputs-HGR-r202-archive/g__Romboutsia_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Romboutsia_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,17 +1275,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_1.fasta</t>
+          <t>label_GCF_000499525_0.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5776162098819893</v>
+        <v>0.7253687461236153</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4223837901180107</v>
+        <v>0.2746312538763847</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5776162098819893</v>
+        <v>0.7253687461236153</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1296,17 +1296,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_10.fasta</t>
+          <t>label_GCF_000499525_100.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9272030152420752</v>
+        <v>0.8698040260031652</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07279698475792479</v>
+        <v>0.1301959739968348</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9272030152420752</v>
+        <v>0.8698040260031652</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1317,38 +1317,38 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_101.fasta</t>
+          <t>label_GCF_000499525_108.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.65552522534045</v>
+        <v>0.4394217479052707</v>
       </c>
       <c r="C39" t="n">
-        <v>0.34447477465955</v>
+        <v>0.5605782520947293</v>
       </c>
       <c r="D39" t="n">
-        <v>0.65552522534045</v>
+        <v>0.5605782520947293</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_102.fasta</t>
+          <t>label_GCF_000499525_130.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.792492255778488</v>
+        <v>0.7954059065318119</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2075077442215119</v>
+        <v>0.204594093468188</v>
       </c>
       <c r="D40" t="n">
-        <v>0.792492255778488</v>
+        <v>0.7954059065318119</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1359,80 +1359,80 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_11.fasta</t>
+          <t>label_GCF_000499525_134.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3993112687285426</v>
+        <v>0.6220626407753981</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6006887312714574</v>
+        <v>0.3779373592246019</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6006887312714574</v>
+        <v>0.6220626407753981</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_115.fasta</t>
+          <t>label_GCF_000499525_135.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4268955127180492</v>
+        <v>0.8729957781226723</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5731044872819508</v>
+        <v>0.1270042218773278</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5731044872819508</v>
+        <v>0.8729957781226723</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_118.fasta</t>
+          <t>label_GCF_000499525_140.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4045785007472863</v>
+        <v>0.8418095001155108</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5954214992527137</v>
+        <v>0.1581904998844892</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5954214992527137</v>
+        <v>0.8418095001155108</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_12.fasta</t>
+          <t>label_GCF_000499525_153.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8360187407551538</v>
+        <v>0.9412475121351199</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1639812592448462</v>
+        <v>0.0587524878648801</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8360187407551538</v>
+        <v>0.9412475121351199</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1443,59 +1443,59 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_14.fasta</t>
+          <t>label_GCF_000499525_156.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.816622498376268</v>
+        <v>0.4959176712349407</v>
       </c>
       <c r="C45" t="n">
-        <v>0.183377501623732</v>
+        <v>0.5040823287650593</v>
       </c>
       <c r="D45" t="n">
-        <v>0.816622498376268</v>
+        <v>0.5040823287650593</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_144.fasta</t>
+          <t>label_GCF_000499525_23.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4688527971614604</v>
+        <v>0.5557535815545349</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5311472028385396</v>
+        <v>0.444246418445465</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5311472028385396</v>
+        <v>0.5557535815545349</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_149.fasta</t>
+          <t>label_GCF_000499525_30.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.7160639729494136</v>
+        <v>0.8183797594955426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2839360270505863</v>
+        <v>0.1816202405044573</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7160639729494136</v>
+        <v>0.8183797594955426</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1506,38 +1506,38 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_159.fasta</t>
+          <t>label_GCF_000499525_32.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5424395030767014</v>
+        <v>0.3811618351846787</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4575604969232986</v>
+        <v>0.6188381648153213</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5424395030767014</v>
+        <v>0.6188381648153213</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_16.fasta</t>
+          <t>label_GCF_000499525_43.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9674436407795691</v>
+        <v>0.8400774681163854</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03255635922043087</v>
+        <v>0.1599225318836146</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9674436407795691</v>
+        <v>0.8400774681163854</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1548,80 +1548,80 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_161.fasta</t>
+          <t>label_GCF_000499525_51.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.08515901326709296</v>
+        <v>0.5080543447394202</v>
       </c>
       <c r="C50" t="n">
-        <v>0.914840986732907</v>
+        <v>0.4919456552605798</v>
       </c>
       <c r="D50" t="n">
-        <v>0.914840986732907</v>
+        <v>0.5080543447394202</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_22.fasta</t>
+          <t>label_GCF_000499525_52.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9066433784624537</v>
+        <v>0.3540638411481825</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09335662153754631</v>
+        <v>0.6459361588518174</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9066433784624537</v>
+        <v>0.6459361588518174</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_24.fasta</t>
+          <t>label_GCF_000499525_53.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.646875496309433</v>
+        <v>0.2470975267397877</v>
       </c>
       <c r="C52" t="n">
-        <v>0.353124503690567</v>
+        <v>0.7529024732602123</v>
       </c>
       <c r="D52" t="n">
-        <v>0.646875496309433</v>
+        <v>0.7529024732602123</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_25.fasta</t>
+          <t>label_GCF_000499525_54.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8505731330919599</v>
+        <v>0.5167017927862354</v>
       </c>
       <c r="C53" t="n">
-        <v>0.14942686690804</v>
+        <v>0.4832982072137647</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8505731330919599</v>
+        <v>0.5167017927862354</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1632,59 +1632,59 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_27.fasta</t>
+          <t>label_GCF_000499525_58.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3481826919031122</v>
+        <v>0.9414930558820214</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6518173080968878</v>
+        <v>0.05850694411797863</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6518173080968878</v>
+        <v>0.9414930558820214</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_31.fasta</t>
+          <t>label_GCF_000499525_60.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8474757421339435</v>
+        <v>0.05972984490589517</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1525242578660565</v>
+        <v>0.9402701550941048</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8474757421339435</v>
+        <v>0.9402701550941048</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_36.fasta</t>
+          <t>label_GCF_000499525_70.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.515943238504269</v>
+        <v>0.8727228053878203</v>
       </c>
       <c r="C56" t="n">
-        <v>0.484056761495731</v>
+        <v>0.1272771946121797</v>
       </c>
       <c r="D56" t="n">
-        <v>0.515943238504269</v>
+        <v>0.8727228053878203</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1695,38 +1695,38 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_37.fasta</t>
+          <t>label_GCF_000499525_71.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4611692028908148</v>
+        <v>0.557953103768982</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5388307971091852</v>
+        <v>0.442046896231018</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5388307971091852</v>
+        <v>0.557953103768982</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_41.fasta</t>
+          <t>label_GCF_000499525_73.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.7282678625992722</v>
+        <v>0.6870067331243462</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2717321374007278</v>
+        <v>0.3129932668756538</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7282678625992722</v>
+        <v>0.6870067331243462</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1737,80 +1737,80 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_63.fasta</t>
+          <t>label_GCF_000499525_77.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.189291387979046</v>
+        <v>0.8812593908474915</v>
       </c>
       <c r="C59" t="n">
-        <v>0.810708612020954</v>
+        <v>0.1187406091525085</v>
       </c>
       <c r="D59" t="n">
-        <v>0.810708612020954</v>
+        <v>0.8812593908474915</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_65.fasta</t>
+          <t>label_GCF_000499525_80.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8336385525250051</v>
+        <v>0.4734739122322624</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1663614474749949</v>
+        <v>0.5265260877677376</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8336385525250051</v>
+        <v>0.5265260877677376</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_67.fasta</t>
+          <t>label_GCF_000499525_94.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.7737146719035418</v>
+        <v>0.3170427722016976</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2262853280964582</v>
+        <v>0.6829572277983024</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7737146719035418</v>
+        <v>0.6829572277983024</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_75.fasta</t>
+          <t>label_GCF_000499525_95.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6905245219276362</v>
+        <v>0.9623539424528198</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3094754780723638</v>
+        <v>0.03764605754718021</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6905245219276362</v>
+        <v>0.9623539424528198</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1821,59 +1821,59 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_8.fasta</t>
+          <t>label_GCF_000499525_104.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3585364015507266</v>
+        <v>0.6990198801929196</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6414635984492734</v>
+        <v>0.3009801198070804</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6414635984492734</v>
+        <v>0.6990198801929196</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_85.fasta</t>
+          <t>label_GCF_000499525_106.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8730118809651204</v>
+        <v>0.4490394597170619</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1269881190348796</v>
+        <v>0.5509605402829381</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8730118809651204</v>
+        <v>0.5509605402829381</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_98.fasta</t>
+          <t>label_GCF_000499525_110.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3570034977724522</v>
+        <v>0.4993408155725713</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6429965022275479</v>
+        <v>0.5006591844274287</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6429965022275479</v>
+        <v>0.5006591844274287</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1884,17 +1884,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_99.fasta</t>
+          <t>label_GCF_000499525_111.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.5159053115658662</v>
+        <v>0.7109139290510822</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4840946884341338</v>
+        <v>0.2890860709489179</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5159053115658662</v>
+        <v>0.7109139290510822</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1905,17 +1905,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_0.fasta</t>
+          <t>label_GCF_000499525_120.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.7253687461236153</v>
+        <v>0.8656947026522994</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2746312538763847</v>
+        <v>0.1343052973477006</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7253687461236153</v>
+        <v>0.8656947026522994</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1926,17 +1926,17 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_100.fasta</t>
+          <t>label_GCF_000499525_121.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.8698040260031652</v>
+        <v>0.895552542238288</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1301959739968348</v>
+        <v>0.104447457761712</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8698040260031652</v>
+        <v>0.895552542238288</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1947,38 +1947,38 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_108.fasta</t>
+          <t>label_GCF_000499525_17.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.4394217479052707</v>
+        <v>0.6452659684485279</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5605782520947293</v>
+        <v>0.3547340315514721</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5605782520947293</v>
+        <v>0.6452659684485279</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_130.fasta</t>
+          <t>label_GCF_000499525_21.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.7954059065318119</v>
+        <v>0.7513085104154116</v>
       </c>
       <c r="C70" t="n">
-        <v>0.204594093468188</v>
+        <v>0.2486914895845884</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7954059065318119</v>
+        <v>0.7513085104154116</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1989,17 +1989,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_134.fasta</t>
+          <t>label_GCF_000499525_28.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6220626407753981</v>
+        <v>0.7203022517857591</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3779373592246019</v>
+        <v>0.2796977482142408</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6220626407753981</v>
+        <v>0.7203022517857591</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2010,17 +2010,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_135.fasta</t>
+          <t>label_GCF_000499525_29.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8729957781226723</v>
+        <v>0.9479539932626522</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1270042218773278</v>
+        <v>0.05204600673734779</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8729957781226723</v>
+        <v>0.9479539932626522</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2031,17 +2031,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_140.fasta</t>
+          <t>label_GCF_000499525_33.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8418095001155108</v>
+        <v>0.9567128149591786</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1581904998844892</v>
+        <v>0.04328718504082139</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8418095001155108</v>
+        <v>0.9567128149591786</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2052,17 +2052,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_153.fasta</t>
+          <t>label_GCF_000499525_34.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9412475121351199</v>
+        <v>0.9647129205549492</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0587524878648801</v>
+        <v>0.03528707944505077</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9412475121351199</v>
+        <v>0.9647129205549492</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2073,38 +2073,38 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_156.fasta</t>
+          <t>label_GCF_000499525_39.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4959176712349407</v>
+        <v>0.9857045369081643</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5040823287650593</v>
+        <v>0.01429546309183568</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5040823287650593</v>
+        <v>0.9857045369081643</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_23.fasta</t>
+          <t>label_GCF_000499525_4.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5557535815545349</v>
+        <v>0.953573607012099</v>
       </c>
       <c r="C76" t="n">
-        <v>0.444246418445465</v>
+        <v>0.04642639298790102</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5557535815545349</v>
+        <v>0.953573607012099</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2115,17 +2115,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_30.fasta</t>
+          <t>label_GCF_000499525_40.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.8183797594955426</v>
+        <v>0.8320723421127505</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1816202405044573</v>
+        <v>0.1679276578872494</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8183797594955426</v>
+        <v>0.8320723421127505</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2136,38 +2136,38 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_32.fasta</t>
+          <t>label_GCF_000499525_44.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3811618351846787</v>
+        <v>0.7740665921507</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6188381648153213</v>
+        <v>0.2259334078492999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6188381648153213</v>
+        <v>0.7740665921507</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_43.fasta</t>
+          <t>label_GCF_000499525_47.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.8400774681163854</v>
+        <v>0.5021101690351979</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1599225318836146</v>
+        <v>0.497889830964802</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8400774681163854</v>
+        <v>0.5021101690351979</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2178,17 +2178,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_51.fasta</t>
+          <t>label_GCF_000499525_48.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.5080543447394202</v>
+        <v>0.5693421134800682</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4919456552605798</v>
+        <v>0.4306578865199318</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5080543447394202</v>
+        <v>0.5693421134800682</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2199,59 +2199,59 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_52.fasta</t>
+          <t>label_GCF_000499525_49.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.3540638411481825</v>
+        <v>0.875768774474902</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6459361588518174</v>
+        <v>0.1242312255250981</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6459361588518174</v>
+        <v>0.875768774474902</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_53.fasta</t>
+          <t>label_GCF_000499525_55.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2470975267397877</v>
+        <v>0.5830283283273601</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7529024732602123</v>
+        <v>0.4169716716726399</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7529024732602123</v>
+        <v>0.5830283283273601</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_54.fasta</t>
+          <t>label_GCF_000499525_57.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.5167017927862354</v>
+        <v>0.7194393986178628</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4832982072137647</v>
+        <v>0.2805606013821372</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5167017927862354</v>
+        <v>0.7194393986178628</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2262,59 +2262,59 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_58.fasta</t>
+          <t>label_GCF_000499525_62.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9414930558820214</v>
+        <v>0.2001404269794194</v>
       </c>
       <c r="C84" t="n">
-        <v>0.05850694411797863</v>
+        <v>0.7998595730205806</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9414930558820214</v>
+        <v>0.7998595730205806</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_60.fasta</t>
+          <t>label_GCF_000499525_64.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.05972984490589517</v>
+        <v>0.5714942738283004</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9402701550941048</v>
+        <v>0.4285057261716995</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9402701550941048</v>
+        <v>0.5714942738283004</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_70.fasta</t>
+          <t>label_GCF_000499525_66.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8727228053878203</v>
+        <v>0.7336484696999024</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1272771946121797</v>
+        <v>0.2663515303000976</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8727228053878203</v>
+        <v>0.7336484696999024</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2325,17 +2325,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_71.fasta</t>
+          <t>label_GCF_000499525_68.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.557953103768982</v>
+        <v>0.8742148919553409</v>
       </c>
       <c r="C87" t="n">
-        <v>0.442046896231018</v>
+        <v>0.1257851080446591</v>
       </c>
       <c r="D87" t="n">
-        <v>0.557953103768982</v>
+        <v>0.8742148919553409</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2346,17 +2346,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_73.fasta</t>
+          <t>label_GCF_000499525_69.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.6870067331243462</v>
+        <v>0.7248547585914217</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3129932668756538</v>
+        <v>0.2751452414085783</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6870067331243462</v>
+        <v>0.7248547585914217</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2367,17 +2367,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_77.fasta</t>
+          <t>label_GCF_000499525_7.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.8812593908474915</v>
+        <v>0.957252046948637</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1187406091525085</v>
+        <v>0.04274795305136304</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8812593908474915</v>
+        <v>0.957252046948637</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2388,38 +2388,38 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_80.fasta</t>
+          <t>label_GCF_000499525_79.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.4734739122322624</v>
+        <v>0.6219483937435066</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5265260877677376</v>
+        <v>0.3780516062564934</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5265260877677376</v>
+        <v>0.6219483937435066</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_94.fasta</t>
+          <t>label_GCF_000499525_82.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.3170427722016976</v>
+        <v>0.4506379116109216</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6829572277983024</v>
+        <v>0.5493620883890784</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6829572277983024</v>
+        <v>0.5493620883890784</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2430,38 +2430,38 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_95.fasta</t>
+          <t>label_GCF_000499525_83.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9623539424528198</v>
+        <v>0.2120783812139513</v>
       </c>
       <c r="C92" t="n">
-        <v>0.03764605754718021</v>
+        <v>0.7879216187860487</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9623539424528198</v>
+        <v>0.7879216187860487</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_104.fasta</t>
+          <t>label_GCF_000499525_87.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.6990198801929196</v>
+        <v>0.6081537514841786</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3009801198070804</v>
+        <v>0.3918462485158214</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6990198801929196</v>
+        <v>0.6081537514841786</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2472,164 +2472,164 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_106.fasta</t>
+          <t>label_GCF_000499525_89.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4490394597170619</v>
+        <v>0.7443243038821838</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5509605402829381</v>
+        <v>0.2556756961178161</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5509605402829381</v>
+        <v>0.7443243038821838</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_110.fasta</t>
+          <t>label_GCF_000499525_103.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4993408155725713</v>
+        <v>0.7087550436447525</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5006591844274287</v>
+        <v>0.2912449563552476</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5006591844274287</v>
+        <v>0.7087550436447525</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_111.fasta</t>
+          <t>label_GCF_000499525_107.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.7109139290510822</v>
+        <v>0.398535457883412</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2890860709489179</v>
+        <v>0.601464542116588</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7109139290510822</v>
+        <v>0.601464542116588</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_120.fasta</t>
+          <t>label_GCF_000499525_112.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.8656947026522994</v>
+        <v>0.3955089986732925</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1343052973477006</v>
+        <v>0.6044910013267075</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8656947026522994</v>
+        <v>0.6044910013267075</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_121.fasta</t>
+          <t>label_GCF_000499525_116.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.895552542238288</v>
+        <v>0.476864786614004</v>
       </c>
       <c r="C98" t="n">
-        <v>0.104447457761712</v>
+        <v>0.523135213385996</v>
       </c>
       <c r="D98" t="n">
-        <v>0.895552542238288</v>
+        <v>0.523135213385996</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_17.fasta</t>
+          <t>label_GCF_000499525_117.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.6452659684485279</v>
+        <v>0.3610938489487399</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3547340315514721</v>
+        <v>0.6389061510512601</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6452659684485279</v>
+        <v>0.6389061510512601</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_21.fasta</t>
+          <t>label_GCF_000499525_122.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.7513085104154116</v>
+        <v>0.3800811672790886</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2486914895845884</v>
+        <v>0.6199188327209114</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7513085104154116</v>
+        <v>0.6199188327209114</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_28.fasta</t>
+          <t>label_GCF_000499525_124.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.7203022517857591</v>
+        <v>0.800712117387098</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2796977482142408</v>
+        <v>0.199287882612902</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7203022517857591</v>
+        <v>0.800712117387098</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2640,17 +2640,17 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_29.fasta</t>
+          <t>label_GCF_000499525_126.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9479539932626522</v>
+        <v>0.6651299613048187</v>
       </c>
       <c r="C102" t="n">
-        <v>0.05204600673734779</v>
+        <v>0.3348700386951813</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9479539932626522</v>
+        <v>0.6651299613048187</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2661,38 +2661,38 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_33.fasta</t>
+          <t>label_GCF_000499525_128.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9567128149591786</v>
+        <v>0.4359212442160285</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04328718504082139</v>
+        <v>0.5640787557839715</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9567128149591786</v>
+        <v>0.5640787557839715</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_34.fasta</t>
+          <t>label_GCF_000499525_129.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9647129205549492</v>
+        <v>0.6478600911906045</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03528707944505077</v>
+        <v>0.3521399088093956</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9647129205549492</v>
+        <v>0.6478600911906045</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2703,17 +2703,17 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_39.fasta</t>
+          <t>label_GCF_000499525_13.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9857045369081643</v>
+        <v>0.9075109018599428</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01429546309183568</v>
+        <v>0.09248909814005728</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9857045369081643</v>
+        <v>0.9075109018599428</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2724,101 +2724,101 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_4.fasta</t>
+          <t>label_GCF_000499525_132.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.953573607012099</v>
+        <v>0.2175928362682281</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04642639298790102</v>
+        <v>0.7824071637317719</v>
       </c>
       <c r="D106" t="n">
-        <v>0.953573607012099</v>
+        <v>0.7824071637317719</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_40.fasta</t>
+          <t>label_GCF_000499525_136.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.8320723421127505</v>
+        <v>0.2011743116061503</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1679276578872494</v>
+        <v>0.7988256883938497</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8320723421127505</v>
+        <v>0.7988256883938497</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_44.fasta</t>
+          <t>label_GCF_000499525_137.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.7740665921507</v>
+        <v>0.3985744581701249</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2259334078492999</v>
+        <v>0.6014255418298751</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7740665921507</v>
+        <v>0.6014255418298751</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_47.fasta</t>
+          <t>label_GCF_000499525_139.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.5021101690351979</v>
+        <v>0.1673166310593935</v>
       </c>
       <c r="C109" t="n">
-        <v>0.497889830964802</v>
+        <v>0.8326833689406066</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5021101690351979</v>
+        <v>0.8326833689406066</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_48.fasta</t>
+          <t>label_GCF_000499525_141.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.5693421134800682</v>
+        <v>0.5418734879309175</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4306578865199318</v>
+        <v>0.4581265120690824</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5693421134800682</v>
+        <v>0.5418734879309175</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2829,185 +2829,185 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_49.fasta</t>
+          <t>label_GCF_000499525_147.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.875768774474902</v>
+        <v>0.2554784860392347</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1242312255250981</v>
+        <v>0.7445215139607653</v>
       </c>
       <c r="D111" t="n">
-        <v>0.875768774474902</v>
+        <v>0.7445215139607653</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_55.fasta</t>
+          <t>label_GCF_000499525_148.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.5830283283273601</v>
+        <v>0.2422726997039393</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4169716716726399</v>
+        <v>0.7577273002960607</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5830283283273601</v>
+        <v>0.7577273002960607</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_57.fasta</t>
+          <t>label_GCF_000499525_151.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.7194393986178628</v>
+        <v>0.4815847278249109</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2805606013821372</v>
+        <v>0.5184152721750891</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7194393986178628</v>
+        <v>0.5184152721750891</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_62.fasta</t>
+          <t>label_GCF_000499525_152.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.2001404269794194</v>
+        <v>0.7375553188820836</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7998595730205806</v>
+        <v>0.2624446811179164</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7998595730205806</v>
+        <v>0.7375553188820836</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_64.fasta</t>
+          <t>label_GCF_000499525_155.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.5714942738283004</v>
+        <v>0.1530471653048379</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4285057261716995</v>
+        <v>0.8469528346951621</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5714942738283004</v>
+        <v>0.8469528346951621</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_66.fasta</t>
+          <t>label_GCF_000499525_157.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.7336484696999024</v>
+        <v>0.226989192520746</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2663515303000976</v>
+        <v>0.7730108074792541</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7336484696999024</v>
+        <v>0.7730108074792541</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_68.fasta</t>
+          <t>label_GCF_000499525_158.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.8742148919553409</v>
+        <v>0.2207143812633431</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1257851080446591</v>
+        <v>0.7792856187366569</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8742148919553409</v>
+        <v>0.7792856187366569</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_69.fasta</t>
+          <t>label_GCF_000499525_162.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.7248547585914217</v>
+        <v>0.2155650513531258</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2751452414085783</v>
+        <v>0.7844349486468742</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7248547585914217</v>
+        <v>0.7844349486468742</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_7.fasta</t>
+          <t>label_GCF_000499525_19.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.957252046948637</v>
+        <v>0.6193519263746772</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04274795305136304</v>
+        <v>0.3806480736253228</v>
       </c>
       <c r="D119" t="n">
-        <v>0.957252046948637</v>
+        <v>0.6193519263746772</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3018,101 +3018,101 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_79.fasta</t>
+          <t>label_GCF_000499525_26.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.6219483937435066</v>
+        <v>0.3936761882536653</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3780516062564934</v>
+        <v>0.6063238117463347</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6219483937435066</v>
+        <v>0.6063238117463347</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_82.fasta</t>
+          <t>label_GCF_000499525_38.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.4506379116109216</v>
+        <v>0.8132696403758939</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5493620883890784</v>
+        <v>0.1867303596241061</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5493620883890784</v>
+        <v>0.8132696403758939</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_83.fasta</t>
+          <t>label_GCF_000499525_42.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.2120783812139513</v>
+        <v>0.6595268330110788</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7879216187860487</v>
+        <v>0.3404731669889212</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7879216187860487</v>
+        <v>0.6595268330110788</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_87.fasta</t>
+          <t>label_GCF_000499525_45.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.6081537514841786</v>
+        <v>0.3175627504886513</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3918462485158214</v>
+        <v>0.6824372495113487</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6081537514841786</v>
+        <v>0.6824372495113487</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_89.fasta</t>
+          <t>label_GCF_000499525_46.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.7443243038821838</v>
+        <v>0.7116884601367937</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2556756961178161</v>
+        <v>0.2883115398632063</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7443243038821838</v>
+        <v>0.7116884601367937</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3123,17 +3123,17 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_103.fasta</t>
+          <t>label_GCF_000499525_5.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.7087550436447525</v>
+        <v>0.702591348233143</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2912449563552476</v>
+        <v>0.2974086517668571</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7087550436447525</v>
+        <v>0.702591348233143</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3144,17 +3144,17 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_107.fasta</t>
+          <t>label_GCF_000499525_50.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.398535457883412</v>
+        <v>0.3793268635292479</v>
       </c>
       <c r="C126" t="n">
-        <v>0.601464542116588</v>
+        <v>0.6206731364707521</v>
       </c>
       <c r="D126" t="n">
-        <v>0.601464542116588</v>
+        <v>0.6206731364707521</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3165,17 +3165,17 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_112.fasta</t>
+          <t>label_GCF_000499525_59.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.3955089986732925</v>
+        <v>0.4808943548226895</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6044910013267075</v>
+        <v>0.5191056451773105</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6044910013267075</v>
+        <v>0.5191056451773105</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3186,38 +3186,38 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_116.fasta</t>
+          <t>label_GCF_000499525_61.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.476864786614004</v>
+        <v>0.7873624485133131</v>
       </c>
       <c r="C128" t="n">
-        <v>0.523135213385996</v>
+        <v>0.2126375514866871</v>
       </c>
       <c r="D128" t="n">
-        <v>0.523135213385996</v>
+        <v>0.7873624485133131</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_117.fasta</t>
+          <t>label_GCF_000499525_72.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.3610938489487399</v>
+        <v>0.4584809221579784</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6389061510512601</v>
+        <v>0.5415190778420216</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6389061510512601</v>
+        <v>0.5415190778420216</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3228,38 +3228,38 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_122.fasta</t>
+          <t>label_GCF_000499525_78.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.3800811672790886</v>
+        <v>0.840692853184267</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6199188327209114</v>
+        <v>0.159307146815733</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6199188327209114</v>
+        <v>0.840692853184267</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_124.fasta</t>
+          <t>label_GCF_000499525_81.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.800712117387098</v>
+        <v>0.7684814622257088</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199287882612902</v>
+        <v>0.2315185377742912</v>
       </c>
       <c r="D131" t="n">
-        <v>0.800712117387098</v>
+        <v>0.7684814622257088</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3270,17 +3270,17 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_126.fasta</t>
+          <t>label_GCF_000499525_86.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.6651299613048187</v>
+        <v>0.8970774140237459</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3348700386951813</v>
+        <v>0.1029225859762541</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6651299613048187</v>
+        <v>0.8970774140237459</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3291,17 +3291,17 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_128.fasta</t>
+          <t>label_GCF_000499525_90.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.4359212442160285</v>
+        <v>0.4196842251091406</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5640787557839715</v>
+        <v>0.5803157748908594</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5640787557839715</v>
+        <v>0.5803157748908594</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3312,38 +3312,38 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_129.fasta</t>
+          <t>label_GCF_000499525_92.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.6478600911906045</v>
+        <v>0.3433733738715491</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3521399088093956</v>
+        <v>0.6566266261284509</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6478600911906045</v>
+        <v>0.6566266261284509</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_13.fasta</t>
+          <t>label_GCF_000499525_105.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9075109018599428</v>
+        <v>0.8783127065521503</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09248909814005728</v>
+        <v>0.1216872934478497</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9075109018599428</v>
+        <v>0.8783127065521503</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3354,59 +3354,59 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_132.fasta</t>
+          <t>label_GCF_000499525_109.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.2175928362682281</v>
+        <v>0.7671060301318682</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7824071637317719</v>
+        <v>0.2328939698681318</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7824071637317719</v>
+        <v>0.7671060301318682</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_136.fasta</t>
+          <t>label_GCF_000499525_113.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2011743116061503</v>
+        <v>0.517926859816737</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7988256883938497</v>
+        <v>0.482073140183263</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7988256883938497</v>
+        <v>0.517926859816737</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_137.fasta</t>
+          <t>label_GCF_000499525_114.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.3985744581701249</v>
+        <v>0.4389962637765863</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6014255418298751</v>
+        <v>0.5610037362234137</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6014255418298751</v>
+        <v>0.5610037362234137</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3417,59 +3417,59 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_139.fasta</t>
+          <t>label_GCF_000499525_119.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1673166310593935</v>
+        <v>0.9512787781909047</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8326833689406066</v>
+        <v>0.04872122180909537</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8326833689406066</v>
+        <v>0.9512787781909047</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_141.fasta</t>
+          <t>label_GCF_000499525_123.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.5418734879309175</v>
+        <v>0.4011736387016885</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4581265120690824</v>
+        <v>0.5988263612983116</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5418734879309175</v>
+        <v>0.5988263612983116</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_147.fasta</t>
+          <t>label_GCF_000499525_125.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.2554784860392347</v>
+        <v>0.4408165238809446</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7445215139607653</v>
+        <v>0.5591834761190554</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7445215139607653</v>
+        <v>0.5591834761190554</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3480,38 +3480,38 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_148.fasta</t>
+          <t>label_GCF_000499525_127.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.2422726997039393</v>
+        <v>0.7283242204677647</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7577273002960607</v>
+        <v>0.2716757795322354</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7577273002960607</v>
+        <v>0.7283242204677647</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_151.fasta</t>
+          <t>label_GCF_000499525_131.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.4815847278249109</v>
+        <v>0.2518875753022761</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5184152721750891</v>
+        <v>0.7481124246977239</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5184152721750891</v>
+        <v>0.7481124246977239</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3522,17 +3522,17 @@
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_152.fasta</t>
+          <t>label_GCF_000499525_133.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.7375553188820836</v>
+        <v>0.7242991387055211</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2624446811179164</v>
+        <v>0.2757008612944789</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7375553188820836</v>
+        <v>0.7242991387055211</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3543,17 +3543,17 @@
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_155.fasta</t>
+          <t>label_GCF_000499525_138.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1530471653048379</v>
+        <v>0.441126968403128</v>
       </c>
       <c r="C145" t="n">
-        <v>0.8469528346951621</v>
+        <v>0.558873031596872</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8469528346951621</v>
+        <v>0.558873031596872</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3564,59 +3564,59 @@
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_157.fasta</t>
+          <t>label_GCF_000499525_142.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.226989192520746</v>
+        <v>0.5967541288737901</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7730108074792541</v>
+        <v>0.40324587112621</v>
       </c>
       <c r="D146" t="n">
-        <v>0.7730108074792541</v>
+        <v>0.5967541288737901</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_158.fasta</t>
+          <t>label_GCF_000499525_143.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.2207143812633431</v>
+        <v>0.7971312844633691</v>
       </c>
       <c r="C147" t="n">
-        <v>0.7792856187366569</v>
+        <v>0.2028687155366309</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7792856187366569</v>
+        <v>0.7971312844633691</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_162.fasta</t>
+          <t>label_GCF_000499525_145.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.2155650513531258</v>
+        <v>0.2891298174314435</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7844349486468742</v>
+        <v>0.7108701825685566</v>
       </c>
       <c r="D148" t="n">
-        <v>0.7844349486468742</v>
+        <v>0.7108701825685566</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3627,17 +3627,17 @@
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_19.fasta</t>
+          <t>label_GCF_000499525_146.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.6193519263746772</v>
+        <v>0.6604811099578121</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3806480736253228</v>
+        <v>0.339518890042188</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6193519263746772</v>
+        <v>0.6604811099578121</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3648,59 +3648,59 @@
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_26.fasta</t>
+          <t>label_GCF_000499525_15.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.3936761882536653</v>
+        <v>0.8716927977448368</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6063238117463347</v>
+        <v>0.1283072022551633</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6063238117463347</v>
+        <v>0.8716927977448368</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_38.fasta</t>
+          <t>label_GCF_000499525_150.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.8132696403758939</v>
+        <v>0.3423319967901947</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1867303596241061</v>
+        <v>0.6576680032098053</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8132696403758939</v>
+        <v>0.6576680032098053</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_42.fasta</t>
+          <t>label_GCF_000499525_154.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.6595268330110788</v>
+        <v>0.8665000683386014</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3404731669889212</v>
+        <v>0.1334999316613987</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6595268330110788</v>
+        <v>0.8665000683386014</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3711,17 +3711,17 @@
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_45.fasta</t>
+          <t>label_GCF_000499525_160.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.3175627504886513</v>
+        <v>0.1352306753988771</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6824372495113487</v>
+        <v>0.8647693246011229</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6824372495113487</v>
+        <v>0.8647693246011229</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3732,17 +3732,17 @@
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_46.fasta</t>
+          <t>label_GCF_000499525_18.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.7116884601367937</v>
+        <v>0.8192951955180789</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2883115398632063</v>
+        <v>0.180704804481921</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7116884601367937</v>
+        <v>0.8192951955180789</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3753,17 +3753,17 @@
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_5.fasta</t>
+          <t>label_GCF_000499525_2.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.702591348233143</v>
+        <v>0.8762546174734989</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2974086517668571</v>
+        <v>0.1237453825265012</v>
       </c>
       <c r="D155" t="n">
-        <v>0.702591348233143</v>
+        <v>0.8762546174734989</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3774,17 +3774,17 @@
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_50.fasta</t>
+          <t>label_GCF_000499525_20.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.3793268635292479</v>
+        <v>0.4939633449765647</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6206731364707521</v>
+        <v>0.5060366550234353</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6206731364707521</v>
+        <v>0.5060366550234353</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3795,38 +3795,38 @@
     <row r="157">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_59.fasta</t>
+          <t>label_GCF_000499525_3.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.4808943548226895</v>
+        <v>0.6594467424242588</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5191056451773105</v>
+        <v>0.3405532575757412</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5191056451773105</v>
+        <v>0.6594467424242588</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_61.fasta</t>
+          <t>label_GCF_000499525_35.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.7873624485133131</v>
+        <v>0.7535584545947003</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2126375514866871</v>
+        <v>0.2464415454052998</v>
       </c>
       <c r="D158" t="n">
-        <v>0.7873624485133131</v>
+        <v>0.7535584545947003</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3837,17 +3837,17 @@
     <row r="159">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_72.fasta</t>
+          <t>label_GCF_000499525_56.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.4584809221579784</v>
+        <v>0.367520809682616</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5415190778420216</v>
+        <v>0.632479190317384</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5415190778420216</v>
+        <v>0.632479190317384</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3858,17 +3858,17 @@
     <row r="160">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_78.fasta</t>
+          <t>label_GCF_000499525_6.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.840692853184267</v>
+        <v>0.7472585490194557</v>
       </c>
       <c r="C160" t="n">
-        <v>0.159307146815733</v>
+        <v>0.2527414509805443</v>
       </c>
       <c r="D160" t="n">
-        <v>0.840692853184267</v>
+        <v>0.7472585490194557</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3879,17 +3879,17 @@
     <row r="161">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_81.fasta</t>
+          <t>label_GCF_000499525_74.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.7684814622257088</v>
+        <v>0.8900430745317318</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2315185377742912</v>
+        <v>0.1099569254682682</v>
       </c>
       <c r="D161" t="n">
-        <v>0.7684814622257088</v>
+        <v>0.8900430745317318</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3900,38 +3900,38 @@
     <row r="162">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_86.fasta</t>
+          <t>label_GCF_000499525_76.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.8970774140237459</v>
+        <v>0.2516140928164544</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1029225859762541</v>
+        <v>0.7483859071835456</v>
       </c>
       <c r="D162" t="n">
-        <v>0.8970774140237459</v>
+        <v>0.7483859071835456</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_90.fasta</t>
+          <t>label_GCF_000499525_84.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.4196842251091406</v>
+        <v>0.4769949172673332</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5803157748908594</v>
+        <v>0.5230050827326668</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5803157748908594</v>
+        <v>0.5230050827326668</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3942,38 +3942,38 @@
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_92.fasta</t>
+          <t>label_GCF_000499525_88.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.3433733738715491</v>
+        <v>0.879152198491413</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6566266261284509</v>
+        <v>0.1208478015085869</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6566266261284509</v>
+        <v>0.879152198491413</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_105.fasta</t>
+          <t>label_GCF_000499525_9.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.8783127065521503</v>
+        <v>0.8677316342861962</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1216872934478497</v>
+        <v>0.1322683657138038</v>
       </c>
       <c r="D165" t="n">
-        <v>0.8783127065521503</v>
+        <v>0.8677316342861962</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3984,38 +3984,38 @@
     <row r="166">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_109.fasta</t>
+          <t>label_GCF_000499525_91.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.7671060301318682</v>
+        <v>0.3270861261027547</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2328939698681318</v>
+        <v>0.6729138738972453</v>
       </c>
       <c r="D166" t="n">
-        <v>0.7671060301318682</v>
+        <v>0.6729138738972453</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_113.fasta</t>
+          <t>label_GCF_000499525_93.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.517926859816737</v>
+        <v>0.6399179091518296</v>
       </c>
       <c r="C167" t="n">
-        <v>0.482073140183263</v>
+        <v>0.3600820908481704</v>
       </c>
       <c r="D167" t="n">
-        <v>0.517926859816737</v>
+        <v>0.6399179091518296</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4026,670 +4026,40 @@
     <row r="168">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_114.fasta</t>
+          <t>label_GCF_000499525_96.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.4389962637765863</v>
+        <v>0.8954498147602367</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5610037362234137</v>
+        <v>0.1045501852397633</v>
       </c>
       <c r="D168" t="n">
-        <v>0.5610037362234137</v>
+        <v>0.8954498147602367</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000499525_119.fasta</t>
+          <t>label_GCF_000499525_97.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.9512787781909047</v>
+        <v>0.8043184197119333</v>
       </c>
       <c r="C169" t="n">
-        <v>0.04872122180909537</v>
+        <v>0.1956815802880667</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9512787781909047</v>
+        <v>0.8043184197119333</v>
       </c>
       <c r="E169" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_123.fasta</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>0.4011736387016885</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.5988263612983116</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.5988263612983116</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_125.fasta</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>0.4408165238809446</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.5591834761190554</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.5591834761190554</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_127.fasta</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>0.7283242204677647</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.2716757795322354</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.7283242204677647</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_131.fasta</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>0.2518875753022761</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.7481124246977239</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.7481124246977239</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_133.fasta</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>0.7242991387055211</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.2757008612944789</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.7242991387055211</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_138.fasta</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>0.441126968403128</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.558873031596872</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.558873031596872</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_142.fasta</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>0.5967541288737901</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.40324587112621</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.5967541288737901</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_143.fasta</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>0.7971312844633691</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.2028687155366309</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.7971312844633691</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_145.fasta</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>0.2891298174314435</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.7108701825685566</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.7108701825685566</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_146.fasta</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>0.6604811099578121</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.339518890042188</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.6604811099578121</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_15.fasta</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>0.8716927977448368</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.1283072022551633</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.8716927977448368</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_150.fasta</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>0.3423319967901947</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.6576680032098053</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.6576680032098053</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_154.fasta</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>0.8665000683386014</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.1334999316613987</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.8665000683386014</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_160.fasta</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>0.1352306753988771</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.8647693246011229</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.8647693246011229</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_18.fasta</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>0.8192951955180789</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.180704804481921</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.8192951955180789</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_2.fasta</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>0.8762546174734989</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.1237453825265012</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.8762546174734989</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_20.fasta</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>0.4939633449765647</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.5060366550234353</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.5060366550234353</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_3.fasta</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>0.6594467424242588</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.3405532575757412</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.6594467424242588</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_35.fasta</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>0.7535584545947003</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.2464415454052998</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.7535584545947003</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_56.fasta</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>0.367520809682616</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.632479190317384</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.632479190317384</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_6.fasta</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>0.7472585490194557</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.2527414509805443</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.7472585490194557</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_74.fasta</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>0.8900430745317318</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.1099569254682682</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.8900430745317318</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_76.fasta</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>0.2516140928164544</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.7483859071835456</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.7483859071835456</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_84.fasta</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>0.4769949172673332</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.5230050827326668</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.5230050827326668</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_88.fasta</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>0.879152198491413</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.1208478015085869</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.879152198491413</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_9.fasta</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0.8677316342861962</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.1322683657138038</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.8677316342861962</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_91.fasta</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0.3270861261027547</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.6729138738972453</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.6729138738972453</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_93.fasta</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>0.6399179091518296</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.3600820908481704</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.6399179091518296</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_96.fasta</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>0.8954498147602367</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.1045501852397633</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.8954498147602367</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000499525_97.fasta</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>0.8043184197119333</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.1956815802880667</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.8043184197119333</v>
-      </c>
-      <c r="E199" t="inlineStr">
         <is>
           <t>s__Romboutsia dakarensis</t>
         </is>
@@ -4706,7 +4076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5416,38 +4786,38 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_107.fasta</t>
+          <t>label_UMGS249_0.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3306170001097558</v>
+        <v>0.9713191000101233</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6693829998902442</v>
+        <v>0.0286808999898767</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6693829998902442</v>
+        <v>0.9713191000101233</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_111.fasta</t>
+          <t>label_UMGS249_104.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1954043644762573</v>
+        <v>0.1457710143261937</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8045956355237427</v>
+        <v>0.8542289856738063</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8045956355237427</v>
+        <v>0.8542289856738063</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -5458,17 +4828,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_116.fasta</t>
+          <t>label_UMGS249_106.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3204524751574053</v>
+        <v>0.2974428591439235</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6795475248425947</v>
+        <v>0.7025571408560765</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6795475248425947</v>
+        <v>0.7025571408560765</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -5479,17 +4849,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_118.fasta</t>
+          <t>label_UMGS249_108.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2139425638972056</v>
+        <v>0.3179753579529281</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7860574361027944</v>
+        <v>0.6820246420470719</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7860574361027944</v>
+        <v>0.6820246420470719</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -5500,38 +4870,38 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_123.fasta</t>
+          <t>label_UMGS249_110.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1965225747218217</v>
+        <v>0.5614129962952213</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8034774252781783</v>
+        <v>0.4385870037047787</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8034774252781783</v>
+        <v>0.5614129962952213</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_124.fasta</t>
+          <t>label_UMGS249_113.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3395846168875016</v>
+        <v>0.1584018325020364</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6604153831124984</v>
+        <v>0.8415981674979636</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6604153831124984</v>
+        <v>0.8415981674979636</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -5542,59 +4912,59 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_128.fasta</t>
+          <t>label_UMGS249_117.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.41776362205082</v>
+        <v>0.5107418406757396</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5822363779491799</v>
+        <v>0.4892581593242604</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5822363779491799</v>
+        <v>0.5107418406757396</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_132.fasta</t>
+          <t>label_UMGS249_120.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7673094538757195</v>
+        <v>0.4427672052316438</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2326905461242805</v>
+        <v>0.5572327947683562</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7673094538757195</v>
+        <v>0.5572327947683562</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_138.fasta</t>
+          <t>label_UMGS249_125.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2188464312740181</v>
+        <v>0.3716611564460591</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7811535687259819</v>
+        <v>0.6283388435539409</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7811535687259819</v>
+        <v>0.6283388435539409</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -5605,17 +4975,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_140.fasta</t>
+          <t>label_UMGS249_13.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1576454949303006</v>
+        <v>0.4041286302683139</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8423545050696994</v>
+        <v>0.5958713697316861</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8423545050696994</v>
+        <v>0.5958713697316861</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -5626,38 +4996,38 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_147.fasta</t>
+          <t>label_UMGS249_130.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.5050295739898534</v>
+        <v>0.3373665792047283</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4949704260101467</v>
+        <v>0.6626334207952717</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5050295739898534</v>
+        <v>0.6626334207952717</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_148.fasta</t>
+          <t>label_UMGS249_131.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2813121334450167</v>
+        <v>0.2862965800580057</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7186878665549833</v>
+        <v>0.7137034199419943</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7186878665549833</v>
+        <v>0.7137034199419943</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5668,17 +5038,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_152.fasta</t>
+          <t>label_UMGS249_136.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3131883461043694</v>
+        <v>0.1594080443552547</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6868116538956306</v>
+        <v>0.8405919556447453</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6868116538956306</v>
+        <v>0.8405919556447453</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5689,38 +5059,38 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_154.fasta</t>
+          <t>label_UMGS249_142.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.6324799426941465</v>
+        <v>0.1126238619445263</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3675200573058534</v>
+        <v>0.8873761380554737</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6324799426941465</v>
+        <v>0.8873761380554737</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_161.fasta</t>
+          <t>label_UMGS249_146.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3199048765856662</v>
+        <v>0.2842257471449436</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6800951234143338</v>
+        <v>0.7157742528550565</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6800951234143338</v>
+        <v>0.7157742528550565</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -5731,17 +5101,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_163.fasta</t>
+          <t>label_UMGS249_150.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2310894959761022</v>
+        <v>0.2967204017292001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7689105040238978</v>
+        <v>0.7032795982707999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7689105040238978</v>
+        <v>0.7032795982707999</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5752,17 +5122,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_164.fasta</t>
+          <t>label_UMGS249_151.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2992571072842257</v>
+        <v>0.3254829589152312</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7007428927157743</v>
+        <v>0.6745170410847688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7007428927157743</v>
+        <v>0.6745170410847688</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5773,59 +5143,59 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_166.fasta</t>
+          <t>label_UMGS249_159.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.7068693998167208</v>
+        <v>0.3853742682599534</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2931306001832791</v>
+        <v>0.6146257317400466</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7068693998167208</v>
+        <v>0.6146257317400466</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_167.fasta</t>
+          <t>label_UMGS249_168.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2411208906631818</v>
+        <v>0.5997104742850523</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7588791093368182</v>
+        <v>0.4002895257149477</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7588791093368182</v>
+        <v>0.5997104742850523</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_170.fasta</t>
+          <t>label_UMGS249_172.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.05357424641876307</v>
+        <v>0.4457906890422753</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9464257535812369</v>
+        <v>0.5542093109577247</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9464257535812369</v>
+        <v>0.5542093109577247</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5836,17 +5206,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_27.fasta</t>
+          <t>label_UMGS249_2.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7177274313890429</v>
+        <v>0.7793532164071046</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2822725686109571</v>
+        <v>0.2206467835928954</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7177274313890429</v>
+        <v>0.7793532164071046</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -5857,17 +5227,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_29.fasta</t>
+          <t>label_UMGS249_22.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2715146668686526</v>
+        <v>0.1433302668779242</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7284853331313474</v>
+        <v>0.8566697331220758</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7284853331313474</v>
+        <v>0.8566697331220758</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -5878,17 +5248,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_3.fasta</t>
+          <t>label_UMGS249_26.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3920556522029272</v>
+        <v>0.166444374408728</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6079443477970728</v>
+        <v>0.8335556255912721</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6079443477970728</v>
+        <v>0.8335556255912721</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -5899,38 +5269,38 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_30.fasta</t>
+          <t>label_UMGS249_4.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.5382677635156976</v>
+        <v>0.3021356106900185</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4617322364843023</v>
+        <v>0.6978643893099815</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5382677635156976</v>
+        <v>0.6978643893099815</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_32.fasta</t>
+          <t>label_UMGS249_42.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.5050760516119102</v>
+        <v>0.5207444603298829</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4949239483880899</v>
+        <v>0.4792555396701171</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5050760516119102</v>
+        <v>0.5207444603298829</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5941,17 +5311,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_35.fasta</t>
+          <t>label_UMGS249_43.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.646460381859832</v>
+        <v>0.8033132073765146</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3535396181401679</v>
+        <v>0.1966867926234855</v>
       </c>
       <c r="D59" t="n">
-        <v>0.646460381859832</v>
+        <v>0.8033132073765146</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -5962,17 +5332,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_36.fasta</t>
+          <t>label_UMGS249_46.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.403561727910687</v>
+        <v>0.2871948552927496</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5964382720893131</v>
+        <v>0.7128051447072504</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5964382720893131</v>
+        <v>0.7128051447072504</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -5983,59 +5353,59 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_40.fasta</t>
+          <t>label_UMGS249_49.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5287147906797505</v>
+        <v>0.2178328345704641</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4712852093202495</v>
+        <v>0.782167165429536</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5287147906797505</v>
+        <v>0.782167165429536</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_41.fasta</t>
+          <t>label_UMGS249_50.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.383839008798966</v>
+        <v>0.6080005452932542</v>
       </c>
       <c r="C62" t="n">
-        <v>0.616160991201034</v>
+        <v>0.3919994547067457</v>
       </c>
       <c r="D62" t="n">
-        <v>0.616160991201034</v>
+        <v>0.6080005452932542</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_47.fasta</t>
+          <t>label_UMGS249_53.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2895102627254661</v>
+        <v>0.1855722098665904</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7104897372745339</v>
+        <v>0.8144277901334096</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7104897372745339</v>
+        <v>0.8144277901334096</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -6046,17 +5416,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_72.fasta</t>
+          <t>label_UMGS249_56.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2920781553957377</v>
+        <v>0.2792676305820176</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7079218446042623</v>
+        <v>0.7207323694179825</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7079218446042623</v>
+        <v>0.7207323694179825</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -6067,17 +5437,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_73.fasta</t>
+          <t>label_UMGS249_58.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3968548855103777</v>
+        <v>0.3342769158176125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6031451144896223</v>
+        <v>0.6657230841823875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6031451144896223</v>
+        <v>0.6657230841823875</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -6088,143 +5458,143 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_8.fasta</t>
+          <t>label_UMGS249_62.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8510894314777595</v>
+        <v>0.3357706850954569</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1489105685222405</v>
+        <v>0.6642293149045431</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8510894314777595</v>
+        <v>0.6642293149045431</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_83.fasta</t>
+          <t>label_UMGS249_65.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1266158619841004</v>
+        <v>0.6004656352513067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8733841380158996</v>
+        <v>0.3995343647486932</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8733841380158996</v>
+        <v>0.6004656352513067</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_84.fasta</t>
+          <t>label_UMGS249_66.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1692728487814387</v>
+        <v>0.6357244978084553</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8307271512185613</v>
+        <v>0.3642755021915448</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8307271512185613</v>
+        <v>0.6357244978084553</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_87.fasta</t>
+          <t>label_UMGS249_71.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2121316814999443</v>
+        <v>0.5892912836257882</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7878683185000557</v>
+        <v>0.4107087163742117</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7878683185000557</v>
+        <v>0.5892912836257882</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_97.fasta</t>
+          <t>label_UMGS249_74.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2156516800564159</v>
+        <v>0.7048114683985238</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7843483199435841</v>
+        <v>0.2951885316014762</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7843483199435841</v>
+        <v>0.7048114683985238</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_0.fasta</t>
+          <t>label_UMGS249_85.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9713191000101233</v>
+        <v>0.4648328365139099</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0286808999898767</v>
+        <v>0.5351671634860901</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9713191000101233</v>
+        <v>0.5351671634860901</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_104.fasta</t>
+          <t>label_UMGS249_86.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1457710143261937</v>
+        <v>0.1666293460017775</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8542289856738063</v>
+        <v>0.8333706539982225</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8542289856738063</v>
+        <v>0.8333706539982225</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -6235,17 +5605,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_106.fasta</t>
+          <t>label_UMGS249_94.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2974428591439235</v>
+        <v>0.3971871534374497</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7025571408560765</v>
+        <v>0.6028128465625503</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7025571408560765</v>
+        <v>0.6028128465625503</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -6256,17 +5626,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_108.fasta</t>
+          <t>label_UMGS249_99.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3179753579529281</v>
+        <v>0.4682338597272058</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6820246420470719</v>
+        <v>0.5317661402727942</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6820246420470719</v>
+        <v>0.5317661402727942</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -6277,17 +5647,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_110.fasta</t>
+          <t>label_UMGS249_1.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5614129962952213</v>
+        <v>0.6964921569220333</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4385870037047787</v>
+        <v>0.3035078430779668</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5614129962952213</v>
+        <v>0.6964921569220333</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -6298,59 +5668,59 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_113.fasta</t>
+          <t>label_UMGS249_11.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1584018325020364</v>
+        <v>0.6916722637076302</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8415981674979636</v>
+        <v>0.3083277362923697</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8415981674979636</v>
+        <v>0.6916722637076302</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_117.fasta</t>
+          <t>label_UMGS249_112.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5107418406757396</v>
+        <v>0.2750136928936955</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4892581593242604</v>
+        <v>0.7249863071063045</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5107418406757396</v>
+        <v>0.7249863071063045</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_120.fasta</t>
+          <t>label_UMGS249_115.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4427672052316438</v>
+        <v>0.1872117247729682</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5572327947683562</v>
+        <v>0.8127882752270318</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5572327947683562</v>
+        <v>0.8127882752270318</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -6361,17 +5731,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_125.fasta</t>
+          <t>label_UMGS249_119.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3716611564460591</v>
+        <v>0.3646317858547244</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6283388435539409</v>
+        <v>0.6353682141452756</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6283388435539409</v>
+        <v>0.6353682141452756</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -6382,17 +5752,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_13.fasta</t>
+          <t>label_UMGS249_12.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.4041286302683139</v>
+        <v>0.4105482074659469</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5958713697316861</v>
+        <v>0.5894517925340531</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5958713697316861</v>
+        <v>0.5894517925340531</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -6403,17 +5773,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_130.fasta</t>
+          <t>label_UMGS249_122.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.3373665792047283</v>
+        <v>0.4148147538161974</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6626334207952717</v>
+        <v>0.5851852461838026</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6626334207952717</v>
+        <v>0.5851852461838026</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -6424,38 +5794,38 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_131.fasta</t>
+          <t>label_UMGS249_127.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2862965800580057</v>
+        <v>0.6219899223172828</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7137034199419943</v>
+        <v>0.3780100776827173</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7137034199419943</v>
+        <v>0.6219899223172828</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_136.fasta</t>
+          <t>label_UMGS249_139.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1594080443552547</v>
+        <v>0.08534566569673829</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8405919556447453</v>
+        <v>0.9146543343032617</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8405919556447453</v>
+        <v>0.9146543343032617</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -6466,17 +5836,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_142.fasta</t>
+          <t>label_UMGS249_14.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1126238619445263</v>
+        <v>0.3697387239518806</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8873761380554737</v>
+        <v>0.6302612760481194</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8873761380554737</v>
+        <v>0.6302612760481194</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -6487,17 +5857,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_146.fasta</t>
+          <t>label_UMGS249_149.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2842257471449436</v>
+        <v>0.4430378523683758</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7157742528550565</v>
+        <v>0.5569621476316242</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7157742528550565</v>
+        <v>0.5569621476316242</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -6508,38 +5878,38 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_150.fasta</t>
+          <t>label_UMGS249_15.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2967204017292001</v>
+        <v>0.6281373519896757</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7032795982707999</v>
+        <v>0.3718626480103243</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7032795982707999</v>
+        <v>0.6281373519896757</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_151.fasta</t>
+          <t>label_UMGS249_157.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3254829589152312</v>
+        <v>0.2760910361663418</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6745170410847688</v>
+        <v>0.7239089638336583</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6745170410847688</v>
+        <v>0.7239089638336583</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -6550,17 +5920,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_159.fasta</t>
+          <t>label_UMGS249_158.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3853742682599534</v>
+        <v>0.2881208664060456</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6146257317400466</v>
+        <v>0.7118791335939545</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6146257317400466</v>
+        <v>0.7118791335939545</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -6571,17 +5941,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_168.fasta</t>
+          <t>label_UMGS249_16.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.5997104742850523</v>
+        <v>0.5268469907942163</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4002895257149477</v>
+        <v>0.4731530092057837</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5997104742850523</v>
+        <v>0.5268469907942163</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -6592,17 +5962,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_172.fasta</t>
+          <t>label_UMGS249_162.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.4457906890422753</v>
+        <v>0.4014211408104199</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5542093109577247</v>
+        <v>0.5985788591895801</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5542093109577247</v>
+        <v>0.5985788591895801</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6613,38 +5983,38 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_2.fasta</t>
+          <t>label_UMGS249_18.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.7793532164071046</v>
+        <v>0.4341837952439672</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2206467835928954</v>
+        <v>0.5658162047560329</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7793532164071046</v>
+        <v>0.5658162047560329</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_22.fasta</t>
+          <t>label_UMGS249_19.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1433302668779242</v>
+        <v>0.3756842002478811</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8566697331220758</v>
+        <v>0.6243157997521189</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8566697331220758</v>
+        <v>0.6243157997521189</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -6655,38 +6025,38 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_26.fasta</t>
+          <t>label_UMGS249_24.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.166444374408728</v>
+        <v>0.6891812166537712</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8335556255912721</v>
+        <v>0.3108187833462289</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8335556255912721</v>
+        <v>0.6891812166537712</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_4.fasta</t>
+          <t>label_UMGS249_28.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3021356106900185</v>
+        <v>0.2898468980138376</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6978643893099815</v>
+        <v>0.7101531019861624</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6978643893099815</v>
+        <v>0.7101531019861624</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6697,59 +6067,59 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_42.fasta</t>
+          <t>label_UMGS249_33.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5207444603298829</v>
+        <v>0.3348962815586185</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4792555396701171</v>
+        <v>0.6651037184413815</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5207444603298829</v>
+        <v>0.6651037184413815</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_43.fasta</t>
+          <t>label_UMGS249_48.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.8033132073765146</v>
+        <v>0.2560848545598601</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1966867926234855</v>
+        <v>0.7439151454401399</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8033132073765146</v>
+        <v>0.7439151454401399</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_46.fasta</t>
+          <t>label_UMGS249_52.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.2871948552927496</v>
+        <v>0.1656007554543194</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7128051447072504</v>
+        <v>0.8343992445456807</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7128051447072504</v>
+        <v>0.8343992445456807</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6760,59 +6130,59 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_49.fasta</t>
+          <t>label_UMGS249_6.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.2178328345704641</v>
+        <v>0.5599169448747692</v>
       </c>
       <c r="C98" t="n">
-        <v>0.782167165429536</v>
+        <v>0.4400830551252308</v>
       </c>
       <c r="D98" t="n">
-        <v>0.782167165429536</v>
+        <v>0.5599169448747692</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_50.fasta</t>
+          <t>label_UMGS249_60.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.6080005452932542</v>
+        <v>0.293780362314174</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3919994547067457</v>
+        <v>0.706219637685826</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6080005452932542</v>
+        <v>0.706219637685826</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_53.fasta</t>
+          <t>label_UMGS249_61.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1855722098665904</v>
+        <v>0.2187660551884282</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8144277901334096</v>
+        <v>0.7812339448115718</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8144277901334096</v>
+        <v>0.7812339448115718</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6823,17 +6193,17 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_56.fasta</t>
+          <t>label_UMGS249_64.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.2792676305820176</v>
+        <v>0.2786979423559407</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7207323694179825</v>
+        <v>0.7213020576440593</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7207323694179825</v>
+        <v>0.7213020576440593</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6844,17 +6214,17 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_58.fasta</t>
+          <t>label_UMGS249_7.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.3342769158176125</v>
+        <v>0.2761554549859595</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6657230841823875</v>
+        <v>0.7238445450140406</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6657230841823875</v>
+        <v>0.7238445450140406</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6865,17 +6235,17 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_62.fasta</t>
+          <t>label_UMGS249_70.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.3357706850954569</v>
+        <v>0.3415104215413777</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6642293149045431</v>
+        <v>0.6584895784586223</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6642293149045431</v>
+        <v>0.6584895784586223</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6886,59 +6256,59 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_65.fasta</t>
+          <t>label_UMGS249_76.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.6004656352513067</v>
+        <v>0.4009318685168943</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3995343647486932</v>
+        <v>0.5990681314831057</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6004656352513067</v>
+        <v>0.5990681314831057</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_66.fasta</t>
+          <t>label_UMGS249_82.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.6357244978084553</v>
+        <v>0.209920591061305</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3642755021915448</v>
+        <v>0.7900794089386951</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6357244978084553</v>
+        <v>0.7900794089386951</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_71.fasta</t>
+          <t>label_UMGS249_9.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5892912836257882</v>
+        <v>0.8429748790724566</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4107087163742117</v>
+        <v>0.1570251209275434</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5892912836257882</v>
+        <v>0.8429748790724566</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6949,38 +6319,38 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_74.fasta</t>
+          <t>label_UMGS249_90.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.7048114683985238</v>
+        <v>0.3943071267555761</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2951885316014762</v>
+        <v>0.6056928732444239</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7048114683985238</v>
+        <v>0.6056928732444239</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_85.fasta</t>
+          <t>label_UMGS249_93.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.4648328365139099</v>
+        <v>0.1513827449250575</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5351671634860901</v>
+        <v>0.8486172550749425</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5351671634860901</v>
+        <v>0.8486172550749425</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6991,17 +6361,17 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_86.fasta</t>
+          <t>label_UMGS249_95.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1666293460017775</v>
+        <v>0.386385802661535</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8333706539982225</v>
+        <v>0.613614197338465</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8333706539982225</v>
+        <v>0.613614197338465</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -7012,17 +6382,17 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_94.fasta</t>
+          <t>label_UMGS249_100.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.3971871534374497</v>
+        <v>0.09083135941398868</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6028128465625503</v>
+        <v>0.9091686405860113</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6028128465625503</v>
+        <v>0.9091686405860113</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -7033,17 +6403,17 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_99.fasta</t>
+          <t>label_UMGS249_101.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.4682338597272058</v>
+        <v>0.1268702559737913</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5317661402727942</v>
+        <v>0.8731297440262087</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5317661402727942</v>
+        <v>0.8731297440262087</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -7054,59 +6424,59 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_1.fasta</t>
+          <t>label_UMGS249_105.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.6964921569220333</v>
+        <v>0.3198948868877934</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3035078430779668</v>
+        <v>0.6801051131122066</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6964921569220333</v>
+        <v>0.6801051131122066</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_11.fasta</t>
+          <t>label_UMGS249_121.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.6916722637076302</v>
+        <v>0.2312254621844614</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3083277362923697</v>
+        <v>0.7687745378155386</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6916722637076302</v>
+        <v>0.7687745378155386</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_112.fasta</t>
+          <t>label_UMGS249_134.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.2750136928936955</v>
+        <v>0.2561679963489732</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7249863071063045</v>
+        <v>0.7438320036510268</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7249863071063045</v>
+        <v>0.7438320036510268</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7117,17 +6487,17 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_115.fasta</t>
+          <t>label_UMGS249_135.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1872117247729682</v>
+        <v>0.2620150478445489</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8127882752270318</v>
+        <v>0.7379849521554511</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8127882752270318</v>
+        <v>0.7379849521554511</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7138,17 +6508,17 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_119.fasta</t>
+          <t>label_UMGS249_137.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.3646317858547244</v>
+        <v>0.2332092555154416</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6353682141452756</v>
+        <v>0.7667907444845585</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6353682141452756</v>
+        <v>0.7667907444845585</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7159,17 +6529,17 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_12.fasta</t>
+          <t>label_UMGS249_141.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.4105482074659469</v>
+        <v>0.1191556250459184</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5894517925340531</v>
+        <v>0.8808443749540816</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5894517925340531</v>
+        <v>0.8808443749540816</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7180,17 +6550,17 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_122.fasta</t>
+          <t>label_UMGS249_145.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.4148147538161974</v>
+        <v>0.3565012438933993</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5851852461838026</v>
+        <v>0.6434987561066008</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5851852461838026</v>
+        <v>0.6434987561066008</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7201,38 +6571,38 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_127.fasta</t>
+          <t>label_UMGS249_153.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.6219899223172828</v>
+        <v>0.1734193617688716</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3780100776827173</v>
+        <v>0.8265806382311285</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6219899223172828</v>
+        <v>0.8265806382311285</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_139.fasta</t>
+          <t>label_UMGS249_155.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.08534566569673829</v>
+        <v>0.4182159557462402</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9146543343032617</v>
+        <v>0.5817840442537598</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9146543343032617</v>
+        <v>0.5817840442537598</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7243,17 +6613,17 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_14.fasta</t>
+          <t>label_UMGS249_165.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.3697387239518806</v>
+        <v>0.4807819857390494</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6302612760481194</v>
+        <v>0.5192180142609506</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6302612760481194</v>
+        <v>0.5192180142609506</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7264,17 +6634,17 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_149.fasta</t>
+          <t>label_UMGS249_171.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.4430378523683758</v>
+        <v>0.2978859826127112</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5569621476316242</v>
+        <v>0.7021140173872888</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5569621476316242</v>
+        <v>0.7021140173872888</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7285,38 +6655,38 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_15.fasta</t>
+          <t>label_UMGS249_21.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.6281373519896757</v>
+        <v>0.4663433645551208</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3718626480103243</v>
+        <v>0.5336566354448792</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6281373519896757</v>
+        <v>0.5336566354448792</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_157.fasta</t>
+          <t>label_UMGS249_25.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.2760910361663418</v>
+        <v>0.2318625866002803</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7239089638336583</v>
+        <v>0.7681374133997197</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7239089638336583</v>
+        <v>0.7681374133997197</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7327,17 +6697,17 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_158.fasta</t>
+          <t>label_UMGS249_31.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.2881208664060456</v>
+        <v>0.308664538504607</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7118791335939545</v>
+        <v>0.691335461495393</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7118791335939545</v>
+        <v>0.691335461495393</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7348,17 +6718,17 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_16.fasta</t>
+          <t>label_UMGS249_44.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.5268469907942163</v>
+        <v>0.5537596831596616</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4731530092057837</v>
+        <v>0.4462403168403384</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5268469907942163</v>
+        <v>0.5537596831596616</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -7369,17 +6739,17 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_162.fasta</t>
+          <t>label_UMGS249_5.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.4014211408104199</v>
+        <v>0.425677126154711</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5985788591895801</v>
+        <v>0.574322873845289</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5985788591895801</v>
+        <v>0.574322873845289</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -7390,17 +6760,17 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_18.fasta</t>
+          <t>label_UMGS249_51.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.4341837952439672</v>
+        <v>0.1668945677875522</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5658162047560329</v>
+        <v>0.8331054322124478</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5658162047560329</v>
+        <v>0.8331054322124478</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -7411,17 +6781,17 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_19.fasta</t>
+          <t>label_UMGS249_54.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.3756842002478811</v>
+        <v>0.09387792635234049</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6243157997521189</v>
+        <v>0.9061220736476595</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6243157997521189</v>
+        <v>0.9061220736476595</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -7432,38 +6802,38 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_24.fasta</t>
+          <t>label_UMGS249_57.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.6891812166537712</v>
+        <v>0.4513160682873126</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3108187833462289</v>
+        <v>0.5486839317126874</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6891812166537712</v>
+        <v>0.5486839317126874</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_28.fasta</t>
+          <t>label_UMGS249_59.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.2898468980138376</v>
+        <v>0.3332819112766456</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7101531019861624</v>
+        <v>0.6667180887233544</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7101531019861624</v>
+        <v>0.6667180887233544</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -7474,17 +6844,17 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_33.fasta</t>
+          <t>label_UMGS249_67.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3348962815586185</v>
+        <v>0.107551940518412</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6651037184413815</v>
+        <v>0.892448059481588</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6651037184413815</v>
+        <v>0.892448059481588</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -7495,17 +6865,17 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_48.fasta</t>
+          <t>label_UMGS249_79.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.2560848545598601</v>
+        <v>0.1697240914235252</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7439151454401399</v>
+        <v>0.8302759085764748</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7439151454401399</v>
+        <v>0.8302759085764748</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -7516,17 +6886,17 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_52.fasta</t>
+          <t>label_UMGS249_81.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1656007554543194</v>
+        <v>0.1995412255473475</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8343992445456807</v>
+        <v>0.8004587744526525</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8343992445456807</v>
+        <v>0.8004587744526525</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -7537,17 +6907,17 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_6.fasta</t>
+          <t>label_UMGS249_88.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.5599169448747692</v>
+        <v>0.6079165932763135</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4400830551252308</v>
+        <v>0.3920834067236865</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5599169448747692</v>
+        <v>0.6079165932763135</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -7558,17 +6928,17 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_60.fasta</t>
+          <t>label_UMGS249_91.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.293780362314174</v>
+        <v>0.3282115880439676</v>
       </c>
       <c r="C136" t="n">
-        <v>0.706219637685826</v>
+        <v>0.6717884119560324</v>
       </c>
       <c r="D136" t="n">
-        <v>0.706219637685826</v>
+        <v>0.6717884119560324</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -7579,17 +6949,17 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_61.fasta</t>
+          <t>label_UMGS249_96.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2187660551884282</v>
+        <v>0.1750667600494673</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7812339448115718</v>
+        <v>0.8249332399505328</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7812339448115718</v>
+        <v>0.8249332399505328</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7600,38 +6970,38 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_64.fasta</t>
+          <t>label_UMGS249_10.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.2786979423559407</v>
+        <v>0.7034424118999567</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7213020576440593</v>
+        <v>0.2965575881000433</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7213020576440593</v>
+        <v>0.7034424118999567</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_7.fasta</t>
+          <t>label_UMGS249_102.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.2761554549859595</v>
+        <v>0.2520276233619043</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7238445450140406</v>
+        <v>0.7479723766380957</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7238445450140406</v>
+        <v>0.7479723766380957</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7642,17 +7012,17 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_70.fasta</t>
+          <t>label_UMGS249_103.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.3415104215413777</v>
+        <v>0.2695793584592748</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6584895784586223</v>
+        <v>0.7304206415407252</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6584895784586223</v>
+        <v>0.7304206415407252</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7663,17 +7033,17 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_76.fasta</t>
+          <t>label_UMGS249_109.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.4009318685168943</v>
+        <v>0.2683975581152233</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5990681314831057</v>
+        <v>0.7316024418847767</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5990681314831057</v>
+        <v>0.7316024418847767</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7684,17 +7054,17 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_82.fasta</t>
+          <t>label_UMGS249_114.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.209920591061305</v>
+        <v>0.2897702954571993</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7900794089386951</v>
+        <v>0.7102297045428007</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7900794089386951</v>
+        <v>0.7102297045428007</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7705,38 +7075,38 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_9.fasta</t>
+          <t>label_UMGS249_126.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.8429748790724566</v>
+        <v>0.3810973038085897</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1570251209275434</v>
+        <v>0.6189026961914103</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8429748790724566</v>
+        <v>0.6189026961914103</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_90.fasta</t>
+          <t>label_UMGS249_129.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.3943071267555761</v>
+        <v>0.2053008850843843</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6056928732444239</v>
+        <v>0.7946991149156157</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6056928732444239</v>
+        <v>0.7946991149156157</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7747,17 +7117,17 @@
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_93.fasta</t>
+          <t>label_UMGS249_133.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1513827449250575</v>
+        <v>0.3200601597486799</v>
       </c>
       <c r="C145" t="n">
-        <v>0.8486172550749425</v>
+        <v>0.6799398402513201</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8486172550749425</v>
+        <v>0.6799398402513201</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7768,17 +7138,17 @@
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_95.fasta</t>
+          <t>label_UMGS249_143.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.386385802661535</v>
+        <v>0.3254349246548616</v>
       </c>
       <c r="C146" t="n">
-        <v>0.613614197338465</v>
+        <v>0.6745650753451384</v>
       </c>
       <c r="D146" t="n">
-        <v>0.613614197338465</v>
+        <v>0.6745650753451384</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7789,17 +7159,17 @@
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_100.fasta</t>
+          <t>label_UMGS249_144.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.09083135941398868</v>
+        <v>0.2257799095172349</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9091686405860113</v>
+        <v>0.7742200904827651</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9091686405860113</v>
+        <v>0.7742200904827651</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7810,17 +7180,17 @@
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_101.fasta</t>
+          <t>label_UMGS249_156.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.1268702559737913</v>
+        <v>0.08264637333642888</v>
       </c>
       <c r="C148" t="n">
-        <v>0.8731297440262087</v>
+        <v>0.9173536266635711</v>
       </c>
       <c r="D148" t="n">
-        <v>0.8731297440262087</v>
+        <v>0.9173536266635711</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7831,17 +7201,17 @@
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_105.fasta</t>
+          <t>label_UMGS249_160.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.3198948868877934</v>
+        <v>0.2562280414945202</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6801051131122066</v>
+        <v>0.7437719585054798</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6801051131122066</v>
+        <v>0.7437719585054798</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7852,38 +7222,38 @@
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_121.fasta</t>
+          <t>label_UMGS249_169.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.2312254621844614</v>
+        <v>0.51857211309218</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7687745378155386</v>
+        <v>0.48142788690782</v>
       </c>
       <c r="D150" t="n">
-        <v>0.7687745378155386</v>
+        <v>0.51857211309218</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_134.fasta</t>
+          <t>label_UMGS249_17.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.2561679963489732</v>
+        <v>0.4528798235200089</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7438320036510268</v>
+        <v>0.5471201764799911</v>
       </c>
       <c r="D151" t="n">
-        <v>0.7438320036510268</v>
+        <v>0.5471201764799911</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7894,17 +7264,17 @@
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_135.fasta</t>
+          <t>label_UMGS249_20.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.2620150478445489</v>
+        <v>0.3638713363444718</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7379849521554511</v>
+        <v>0.6361286636555282</v>
       </c>
       <c r="D152" t="n">
-        <v>0.7379849521554511</v>
+        <v>0.6361286636555282</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7915,17 +7285,17 @@
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_137.fasta</t>
+          <t>label_UMGS249_23.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.2332092555154416</v>
+        <v>0.22709075598868</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7667907444845585</v>
+        <v>0.7729092440113201</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7667907444845585</v>
+        <v>0.7729092440113201</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7936,59 +7306,59 @@
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_141.fasta</t>
+          <t>label_UMGS249_34.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.1191556250459184</v>
+        <v>0.5274429864898376</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8808443749540816</v>
+        <v>0.4725570135101624</v>
       </c>
       <c r="D154" t="n">
-        <v>0.8808443749540816</v>
+        <v>0.5274429864898376</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_145.fasta</t>
+          <t>label_UMGS249_37.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.3565012438933993</v>
+        <v>0.522700470112293</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6434987561066008</v>
+        <v>0.477299529887707</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6434987561066008</v>
+        <v>0.522700470112293</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_153.fasta</t>
+          <t>label_UMGS249_38.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1734193617688716</v>
+        <v>0.4677779025258463</v>
       </c>
       <c r="C156" t="n">
-        <v>0.8265806382311285</v>
+        <v>0.5322220974741537</v>
       </c>
       <c r="D156" t="n">
-        <v>0.8265806382311285</v>
+        <v>0.5322220974741537</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7999,17 +7369,17 @@
     <row r="157">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_155.fasta</t>
+          <t>label_UMGS249_39.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.4182159557462402</v>
+        <v>0.2644034893137851</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5817840442537598</v>
+        <v>0.735596510686215</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5817840442537598</v>
+        <v>0.735596510686215</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -8020,17 +7390,17 @@
     <row r="158">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_165.fasta</t>
+          <t>label_UMGS249_45.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.4807819857390494</v>
+        <v>0.4223749533168688</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5192180142609506</v>
+        <v>0.5776250466831312</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5192180142609506</v>
+        <v>0.5776250466831312</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8041,17 +7411,17 @@
     <row r="159">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_171.fasta</t>
+          <t>label_UMGS249_55.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.2978859826127112</v>
+        <v>0.4152849982272259</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7021140173872888</v>
+        <v>0.5847150017727741</v>
       </c>
       <c r="D159" t="n">
-        <v>0.7021140173872888</v>
+        <v>0.5847150017727741</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8062,17 +7432,17 @@
     <row r="160">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_21.fasta</t>
+          <t>label_UMGS249_63.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.4663433645551208</v>
+        <v>0.4454926708025123</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5336566354448792</v>
+        <v>0.5545073291974877</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5336566354448792</v>
+        <v>0.5545073291974877</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8083,17 +7453,17 @@
     <row r="161">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_25.fasta</t>
+          <t>label_UMGS249_68.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.2318625866002803</v>
+        <v>0.291640694421414</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7681374133997197</v>
+        <v>0.708359305578586</v>
       </c>
       <c r="D161" t="n">
-        <v>0.7681374133997197</v>
+        <v>0.708359305578586</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8104,17 +7474,17 @@
     <row r="162">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_31.fasta</t>
+          <t>label_UMGS249_69.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.308664538504607</v>
+        <v>0.2459239151272133</v>
       </c>
       <c r="C162" t="n">
-        <v>0.691335461495393</v>
+        <v>0.7540760848727867</v>
       </c>
       <c r="D162" t="n">
-        <v>0.691335461495393</v>
+        <v>0.7540760848727867</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8125,38 +7495,38 @@
     <row r="163">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_44.fasta</t>
+          <t>label_UMGS249_75.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.5537596831596616</v>
+        <v>0.1973688152502073</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4462403168403384</v>
+        <v>0.8026311847497927</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5537596831596616</v>
+        <v>0.8026311847497927</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>s__Romboutsia dakarensis</t>
+          <t>s__Romboutsia timonensis</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_5.fasta</t>
+          <t>label_UMGS249_77.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.425677126154711</v>
+        <v>0.4032658663111826</v>
       </c>
       <c r="C164" t="n">
-        <v>0.574322873845289</v>
+        <v>0.5967341336888174</v>
       </c>
       <c r="D164" t="n">
-        <v>0.574322873845289</v>
+        <v>0.5967341336888174</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8167,17 +7537,17 @@
     <row r="165">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_51.fasta</t>
+          <t>label_UMGS249_78.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.1668945677875522</v>
+        <v>0.2012711721844802</v>
       </c>
       <c r="C165" t="n">
-        <v>0.8331054322124478</v>
+        <v>0.7987288278155198</v>
       </c>
       <c r="D165" t="n">
-        <v>0.8331054322124478</v>
+        <v>0.7987288278155198</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8188,17 +7558,17 @@
     <row r="166">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_54.fasta</t>
+          <t>label_UMGS249_80.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.09387792635234049</v>
+        <v>0.4129235114194608</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9061220736476595</v>
+        <v>0.5870764885805392</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9061220736476595</v>
+        <v>0.5870764885805392</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8209,38 +7579,38 @@
     <row r="167">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_57.fasta</t>
+          <t>label_UMGS249_89.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.4513160682873126</v>
+        <v>0.5058858772682691</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5486839317126874</v>
+        <v>0.4941141227317309</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5486839317126874</v>
+        <v>0.5058858772682691</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>s__Romboutsia timonensis</t>
+          <t>s__Romboutsia dakarensis</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_59.fasta</t>
+          <t>label_UMGS249_92.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.3332819112766456</v>
+        <v>0.2873902744396096</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6667180887233544</v>
+        <v>0.7126097255603904</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6667180887233544</v>
+        <v>0.7126097255603904</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8251,796 +7621,19 @@
     <row r="169">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS249_67.fasta</t>
+          <t>label_UMGS249_98.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.107551940518412</v>
+        <v>0.3084071583087679</v>
       </c>
       <c r="C169" t="n">
-        <v>0.892448059481588</v>
+        <v>0.6915928416912321</v>
       </c>
       <c r="D169" t="n">
-        <v>0.892448059481588</v>
+        <v>0.6915928416912321</v>
       </c>
       <c r="E169" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_79.fasta</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>0.1697240914235252</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.8302759085764748</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.8302759085764748</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_81.fasta</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>0.1995412255473475</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.8004587744526525</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.8004587744526525</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_88.fasta</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>0.6079165932763135</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.3920834067236865</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.6079165932763135</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_91.fasta</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>0.3282115880439676</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.6717884119560324</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.6717884119560324</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_96.fasta</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>0.1750667600494673</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.8249332399505328</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.8249332399505328</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_10.fasta</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>0.7034424118999567</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.2965575881000433</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.7034424118999567</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_102.fasta</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>0.2520276233619043</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.7479723766380957</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.7479723766380957</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_103.fasta</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>0.2695793584592748</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.7304206415407252</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.7304206415407252</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_109.fasta</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>0.2683975581152233</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.7316024418847767</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.7316024418847767</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_114.fasta</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>0.2897702954571993</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.7102297045428007</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.7102297045428007</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_126.fasta</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>0.3810973038085897</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.6189026961914103</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.6189026961914103</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_129.fasta</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>0.2053008850843843</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.7946991149156157</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.7946991149156157</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_133.fasta</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>0.3200601597486799</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.6799398402513201</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.6799398402513201</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_143.fasta</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>0.3254349246548616</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.6745650753451384</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.6745650753451384</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_144.fasta</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>0.2257799095172349</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.7742200904827651</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.7742200904827651</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_156.fasta</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>0.08264637333642888</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.9173536266635711</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.9173536266635711</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_160.fasta</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>0.2562280414945202</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.7437719585054798</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.7437719585054798</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_169.fasta</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>0.51857211309218</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.48142788690782</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.51857211309218</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_17.fasta</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>0.4528798235200089</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.5471201764799911</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.5471201764799911</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_20.fasta</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>0.3638713363444718</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.6361286636555282</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.6361286636555282</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_23.fasta</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>0.22709075598868</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.7729092440113201</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.7729092440113201</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_34.fasta</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>0.5274429864898376</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.4725570135101624</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.5274429864898376</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_37.fasta</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>0.522700470112293</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.477299529887707</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.522700470112293</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_38.fasta</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>0.4677779025258463</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.5322220974741537</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.5322220974741537</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_39.fasta</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>0.2644034893137851</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.735596510686215</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.735596510686215</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_45.fasta</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0.4223749533168688</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.5776250466831312</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.5776250466831312</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_55.fasta</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0.4152849982272259</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.5847150017727741</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.5847150017727741</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_63.fasta</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>0.4454926708025123</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.5545073291974877</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.5545073291974877</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_68.fasta</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>0.291640694421414</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.708359305578586</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.708359305578586</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_69.fasta</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>0.2459239151272133</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.7540760848727867</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.7540760848727867</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_75.fasta</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>0.1973688152502073</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.8026311847497927</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.8026311847497927</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_77.fasta</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>0.4032658663111826</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.5967341336888174</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.5967341336888174</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_78.fasta</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>0.2012711721844802</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.7987288278155198</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.7987288278155198</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_80.fasta</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>0.4129235114194608</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.5870764885805392</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.5870764885805392</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_89.fasta</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>0.5058858772682691</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.4941141227317309</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.5058858772682691</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>s__Romboutsia dakarensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_92.fasta</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>0.2873902744396096</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.7126097255603904</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.7126097255603904</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>s__Romboutsia timonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS249_98.fasta</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>0.3084071583087679</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.6915928416912321</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.6915928416912321</v>
-      </c>
-      <c r="E206" t="inlineStr">
         <is>
           <t>s__Romboutsia timonensis</t>
         </is>
